--- a/Extractor/details.xlsx
+++ b/Extractor/details.xlsx
@@ -1329,8 +1329,8 @@
   </sheetPr>
   <dimension ref="A1:L343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15"/>
